--- a/speedGausFilter.xlsx
+++ b/speedGausFilter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvitel\Documents\University of South Florida\Lessons\Digital Image Processing\HW\DIPCODE_VC\iptool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C36E07-EAAE-4063-89CF-1110561CFFCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852E1606-8743-4BAB-A753-6B0D5BB9B601}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{CBA12406-93CA-495B-A9CE-0578460B2052}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>size</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>2D,ws=19</t>
+  </si>
+  <si>
+    <t>speedup,19</t>
+  </si>
+  <si>
+    <t>speedup,7</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1501,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1520,6 +1526,12 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -1542,7 +1554,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G2">
-        <f>E2/D2</f>
+        <f t="shared" ref="G2:G8" si="0">E2/D2</f>
         <v>0.4</v>
       </c>
     </row>
@@ -1563,11 +1575,11 @@
         <v>111</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F8" si="0">C3/B3</f>
+        <f t="shared" ref="F3:F8" si="1">C3/B3</f>
         <v>4</v>
       </c>
       <c r="G3">
-        <f>E3/D3</f>
+        <f t="shared" si="0"/>
         <v>12.333333333333334</v>
       </c>
     </row>
@@ -1588,11 +1600,11 @@
         <v>442</v>
       </c>
       <c r="F4">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
-        <v>3.25</v>
-      </c>
-      <c r="G4">
-        <f>E4/D4</f>
         <v>9.8222222222222229</v>
       </c>
     </row>
@@ -1613,11 +1625,11 @@
         <v>966</v>
       </c>
       <c r="F5">
+        <f t="shared" si="1"/>
+        <v>3.3148148148148149</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>3.3148148148148149</v>
-      </c>
-      <c r="G5">
-        <f>E5/D5</f>
         <v>9.1132075471698109</v>
       </c>
     </row>
@@ -1638,11 +1650,11 @@
         <v>1726</v>
       </c>
       <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2.0487804878048781</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>2.0487804878048781</v>
-      </c>
-      <c r="G6">
-        <f>E6/D6</f>
         <v>7.7747747747747749</v>
       </c>
     </row>
@@ -1663,11 +1675,11 @@
         <v>3862</v>
       </c>
       <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1.626740947075209</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>1.626740947075209</v>
-      </c>
-      <c r="G7">
-        <f>E7/D7</f>
         <v>6.0532915360501569</v>
       </c>
     </row>
@@ -1688,11 +1700,11 @@
         <v>7418</v>
       </c>
       <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1.4949640287769783</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>1.4949640287769783</v>
-      </c>
-      <c r="G8">
-        <f>E8/D8</f>
         <v>6.1356492969396195</v>
       </c>
     </row>
